--- a/biology/Zoologie/Chromodoris_joshi/Chromodoris_joshi.xlsx
+++ b/biology/Zoologie/Chromodoris_joshi/Chromodoris_joshi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chromodoris joshi est une espèce de nudibranches de la famille des Chromodorididae qui se rencontre aux Philippines et en Indonésie.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Chromodoris joshi a été décrite en 1998 par Terrence M. Gosliner (d) et David W. Behrens (d)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Chromodoris joshi a été décrite en 1998 par Terrence M. Gosliner (d) et David W. Behrens (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, joshi, lui a été donnée en l'honneur de Joshua Todd Gosliner, fils de Terrence M. Gosliner, en compensation des nombreux anniversaires que son père a ratés en étant présent aux Philippines pour ses missions[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, joshi, lui a été donnée en l'honneur de Joshua Todd Gosliner, fils de Terrence M. Gosliner, en compensation des nombreux anniversaires que son père a ratés en étant présent aux Philippines pour ses missions.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Terrence M. Gosliner et David W. Behrens, « Five new species of Chromodoris (Molluscs: Nudibranchia: Chromodorididae) from the tropical Indo-Pacific Ocean », Proceedings of the California Academy of Science, San Francisco, Inconnu, vol. 4, no 50,‎ 11 février 1998, p. 139-165 (ISSN 0068-547X, OCLC 2255608, lire en ligne)</t>
         </is>
